--- a/pythonProject/zhutici_2021.xlsx
+++ b/pythonProject/zhutici_2021.xlsx
@@ -443,210 +443,210 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>picture;accord;depth;judgment;extract;include;match;body;whether;preset;corresponding;check;function;key_point_detection;adjust;make;learn;judge;pixel;front;identification_result;point;use;divide;identification;sequence;send;high;combine;facial_feature_point</t>
+          <t>result;display;operation;collect;face_recognition;verification;accord;match;service;human_face_recognition;self;pass;verify;fingerprint;human_face_identification;parameter;background;upload;based;execute;shoot;display_screen;fine;generate;environment;function;identification;turn;ensure;judging</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>target_face;parameter;key_points;generate;use;model;initial;include;facial_expression;process;real;comprise;control;correspond;contour;first;one;convert;extracted;terminal;identification;depth;display;number;target;inputting;collected;device;comprises;part</t>
+          <t>area;region;key_points;eye;acquire;accord;mouth;generate;detect;mode;detected;nose;interest;include;calculate;contrast;eyebrow;map;determine;divide;locate;pixel;central;histogram;normalization;correspond;ratio;cut;human_face_area;normalized</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>characteristic;region;eye;accord;facial_feature_points;mouth;right;perform;pixel;adjust;detected;coordinate;weight;end;binary;electronic_device;human_face_image;processed;use;record;send;involves;comprise;set;extract;depth;smart;detection;determine;divide</t>
+          <t>video;frame;object;sequence;score;action;motion;track;live;recognition;input;multi;extract;combine;identification;view;detected;preprocessed;segment;use;tracking;comprise;electronic_device;new;length;various;among;deep_neural_network;order;sign</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>unit;time;emotion;analysis;analyze;feature_point;process;real;object;extract;use;system;smart;processing;convert;based;acquire;evaluation;extracted;divide;check;processed;extraction;library;high;facial_feature_points;include;record;whether;detected</t>
+          <t>analysis;device;facial_recognition;authentication;send;storage;smart;record;use;computer;door;face_recognition;platform;comprise;content;control;id;sensor;wireless;management;security;interface;receive;identification;power;authenticate;code;output;multiple;corresponding</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>action;live;current;key_points;target;database;accord;identify;frame;construct;standard;recognize;corresponding;detected;establish;object;extracted;input;body;position;involves;identification;smart;locate;inputted;use;comprise;match;process;recognition</t>
+          <t>set;sample;local;multiple;test;identified;different;training_set;contain;divide;mark;identification_result;age;domain;construct;accord;candidate;global;muscle;library;pair;involves;representation;key_point_detection;cnn;facial_images;small;ratio;take;average</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>model;state;signal;end;analysis;convert;facial_feature;standard;intelligent;judge;store;accord;object;front;evaluation;facial_feature_point;analyze;collected;comprise;weight;form;training;identification;involves;recognition;input;record;inputting;utilize;use</t>
+          <t>information;facial_feature;identification;photo;one;accord;recognition;identity_information;preset;body;least;match;living;target_object;recognize;image_information;request;send;video_stream;acquire;determine;recognition_result;comprise;collection;period;comprehensive;identify;trigger;live;apply</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>network;set;input;use;extraction;inputting;learning;take;key_point_detection;weight;construct;establish;classification;inputted;function;make;trained;divide;learn;type;identification;include;involves;intelligence;recognize;perform;recognition;output;artificial;training</t>
+          <t>perform;process;face_feature;recognition;face_recognition;algorithm;use;recognize;scene;transformation;quality;shield;rule;shielding;filter;preprocessing;processed;non;human;exist;space;realize;normalized;euclidean;normalization;fusion;performed_based;scale;performs;collection</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>detect;key_points;whether;determination;authentication;determine;make;involves;contour;accord;construct;inputted;trained;learn;high;key_point_detection;process;extracted;one;weight;acquire;number;dynamic;use;contain;facial_feature_points;locate;collected;train;facial_feature_point</t>
+          <t>point;key;coordinate;human_face_image;map;accord;position;virtual;template;locate;determine;determined;calculate;positioning;correspond;match;human;detected;involves;outline;intelligent;electronic_device;euclidean;pattern;matrix;relative;mark;convert;movement;corresponding</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>face_recognition;database;perform;store;identity;compare;comparison;comprise;extraction;realize;intelligent;picture;judge;corresponding;smart;identification;complete;collected;recognition;high;face_feature;front;process;match;record;extract;object;capture;processed;accord</t>
+          <t>data;state;image_data;test;collect;evaluation;health;video_data;learn;evaluate;prediction;estimation;group;new;library;standard;construct;rtm;improved;personal;support_vector_machine;identification;human_face_detection;svm;form;convert;positive;image_recognition;resnet;identify</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>data;processing;set;recognition;comprises;use;human_face_image;identification;construct;extracted;perform;capture;facial_feature_point;comprise;different;divide;type;coordinate;weight;body;combine;range;part;form;realize;convert;collected;library;learn;training</t>
+          <t>feature;extract;extraction;facial;similarity;attribute;fusion;recognize;extracted;use;align;include;multiple;texture;geometric;acquire;search;histogram;normalize;single;relationship;standard;create;binary;stored;fuse;tag;registration;weighted;corresponding</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>collect;facial_image;operation;contain;classifier;include;process;locate;align;divide;inputting;collected;smart;object;high;local;match;front;comprise;analysis;extraction;establish;judge;extracted;form;determine;involves;use;training_set;multi</t>
+          <t>model;target_face;training;train;generate;use;parameter;recognition;label;face_recognition_model;input;initial;inputting;category;neural_network_model;accord;output;involves;trained;inputted;identification;electronic_device;loss;facial_expression_image;recognition_result;training_sample;optimal;preset;comprises;add</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>student;map;similarity;posture;correspond;corresponding;standard;initial;accord;determine;action;trained;extract;inputted;identity;smart;convert;involves;judge;evaluation;identification;key_point_detection;extracted;contain;recognition;facial_recognition;library;extraction;calculate;range</t>
+          <t>whether;determine;feature_points;number;make;determination;group;human;monitoring;character;judgment;pose;condition;iris;portrait;light;wear;visual;people;accord;establish;machine;tested;anti;collect;collected;give;less;work;level</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>person;position;use;capture;neural_network;task;multi;comprise;configure;train;learning;angle;trained;select;space;adjust;smart;face_detection;involves;record;preset;identification;locate;identify;match;device;complete;standard;analysis;recognition</t>
+          <t>face_image;processing;pre;identification;extract;comprise;accord;part;level;identify;trained;correct;inputting;correction;generate;comprises;basic;conversion;construct;generator;overall;combine;recognizing;useful;collected;relative;low;respectively;weighted;cut</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>output;vector;probability;photo;coordinate;feature_vector;face_feature;align;corresponding;facial_feature_points;realize;convert;learn;process;high;inputting;fusion;inputted;construct;facial_feature;threshold;extract;extracted;sequence;combine;comprise;end;intelligence;calculate;recognition</t>
+          <t>module;system;analysis;signal;connect;control;behavior;collect;intelligent;face_recognition;identification_module;analyze;use;output;recognition;provide;abnormal;system_based;monitoring;alarm;acquisition;include;electrically;detection_module;action;communication;input;collecting;identify;comprehensive</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>user;facial_recognition;device;identification;one;analysis;receive;determine;record;identify;type;provide;process;perform;display;use;match;authentication;send;collected;select;electronic_device;analyze;utilize;comprise;facial_feature;whether;weight;eye;inputted</t>
+          <t>network;classification;use;convolutional_neural_network;layer;multi;input;classify;train;output;classifier;neural_network;attention;function;task;structure;construct;trained;form;loss;convolutional;convolution;weight;mechanism;sub;deep;residual;connection;cnn;svm</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>frame;video;sequence;angle;space;perform;realize;form;adjust;fusion;high;change;combine;classify;match;identification_result;object;select;comprise;time;electronic_device;construct;process;make;input;type;smart;identification;align;check</t>
+          <t>detect;vector;face_detection;feature_vector;learning;deep;input_image;face_feature_point;output;inputted;center;human;detection_result;comprise;establish;classification;use;inputting;sub;dimension;estimation;judge;space;technology;comprises;key_point_detection;divide;whether;input;ensure</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>module;system;camera;provide;terminal;use;test;connect;based;receive;control;server;transmit;configure;display;artificial;intelligence;dynamic;include;recognition;collected;comprise;identification;analysis;facial_feature_points;match;contour;establish;complete;smart</t>
+          <t>target;correspond;student;determine;type;preset;accord;posture;class;source;difference;corresponding;include;acquire;classroom;image_recognition;final;segment;similarity;group;teach;comprises;find;monitor;gaze;status;attention;step;sign;indicate</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>area;perform;detection;face_feature;identification;recognition;binary;process;high;accord;divide;combine;neural_network;convert;extraction;key_point_detection;space;contour;involves;locate;right;one;number;comprise;fusion;local;use;weight;classifier;processing</t>
+          <t>expression;facial_expression;emotion;recognition;facial_expression_recognition;micro;time;emotion_recognition;flow;audio;establish;space;pre;recognition_result;recommendation;processed;recognize;emotional;identify;fusion;facial_emotion;spatial;learn;image_sequence;utilize;expression_type;category;combine;extract;fuse</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>information;recognition;recognize;weight;preset;involves;combine;evaluation;smart;one;extraction;match;based;front;recognition_result;facial_feature_points;use;number;perform;include;complete;electronic_device;accord;extract;analysis;facial_recognition;determine;collected;identify;identification</t>
+          <t>identify;processor;mask;subject;access;individual;multiple;associate;within;non;generate;predetermined;weight;identification;unique;staff;use;board;determine;fit;technology;indicate;assign;comprise;memory;also;technical;authenticate;request;convert</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>generate;extract;multiple;feature_points;different;part;locate;display;identification_result;training;divide;accord;select;perform;depth;convert;object;utilize;space;inputting;change;weight;comprise;recognition;use;learn;identification;model;store;configure</t>
+          <t>human_face;characteristic;picture;identify;original;accord;judge;human;extract;matrix;index;check;threshold;compare;utilize;standard;preset;great;judgment;adopt;corresponding;facial_feature_point;involves;human_face_area;value;generate;positive;satisfy;report;judging</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>point;key;evaluation;process;local;select;acquire;library;facial_recognition;intelligent;perform;whether;divide;combine;utilize;match;corresponding;extract;inputting;learning;type;identification;comprises;processed;configure;use;determine;form;extracted;convert</t>
+          <t>person;terminal;current;test;server;file;collect;transmit;artificial;voice;online;check;intelligence;specific;identifying;mobile;recognition;receive;message;use;range;comprises;based;five;optimize;execute;face_recognition;pass;contour;screen</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>value;calculate;distance;threshold;library;location;determine;compare;identification_result;pixel;weight;take;judge;combine;dynamic;extracted;evaluation;standard;convert;process;construct;camera;corresponding;set;space;perform;change;range;comprise;contain</t>
+          <t>detection;camera;time;real;driver;facial_feature_points;collect;vehicle;step;body;screen;drive;determine;measure;fatigue;start;comprises;gesture;ii;iv;iii;carry;state;comprise;extract;around;open;arrange;continuous;head</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>result;classification;pre;classify;recognition_result;trained;processing;combine;acquire;high;artificial;intelligence;comprises;inputting;analysis;extracted;realize;processed;divide;type;include;extraction;accord;evaluation;learning;process;recognition;provide;inputted;identification</t>
+          <t>facial;feature_point;dynamic;portion;reference;graph;depth_image;location;skin;component;represent;infrared;facial_region;near;effect;generate;key_feature_points;stream;shape;selection;channel;send;combine;recognizing;request;response;remove;include;template;main</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>sample;test;number;train;category;training_set;accord;identification;select;set;training;process;use;construct;involves;collected;smart;model;divide;include;realize;learn;inputted;high;combine;configure;initial;align;local;processed</t>
+          <t>position;distance;angle;use;adjust;head;block;size;infrared;direction;calculate;average;controller;long;rectangular;posture;memory;multiple;large;adjustment;small;short;rotate;realize;certain;pool;face_feature_points;interaction;exceed;edge</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>target;correspond;determine;preset;facial_feature;accord;acquire;comprises;angle;range;electronic_device;change;inputting;object;facial_feature_points;match;comprise;combine;include;key_point_detection;one;extracted;convert;facial_recognition;involves;corresponding;locate;type;trained;human_face_image</t>
+          <t>user;unit;receive;analyze;provide;configure;system;change;include;recognize;photograph;use;movement;apparatus;pattern;response;extract;gaze;accord;combination;based;facial_feature_point;read;communication;status;enable;amount;feature_point;register;analysis</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>face_image;first;second;perform;facial_feature;key_points;accord;acquire;comprise;part;inputting;comprises;coordinate;match;point;combine;utilize;divide;send;construct;select;processed;one;extracted;process;extract;extraction;processing;device;complete</t>
+          <t>facial_image;database;store;use;compare;capture;system;face_recognition;server;lip;match;comparison;facial_images;take;stored;facial_recognition;enter;user_terminal;memory;transmit;camera;recognition;comprise;call;application;lock;attendance;order;comprises;add</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>human_face;identify;human;face_detection;calculate;detected;inputted;human_face_image;divide;judge;front;inputting;locate;extracted;object;identification;use;right;high;weight;part;perform;one;recognition;corresponding;comprise;identification_result;function;accord;realize</t>
+          <t>dimensional;three;two;right;side;contour;depth;degree;line;left;position_information;eye;front;cloud;coordinate;facial_feature_point;color;leave;convert;comprise;corner;photo;center;vision;four;combine;human;generated;space;extract</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>dimensional;three;two;coordinate;facial_feature_point;facial_feature_points;front;perform;model;right;establish;space;comprise;align;construct;human;extracted;combine;complete;location;form;based;facial_feature;human_face_image;acquire;recognition_result;feature_point;weight;depth;number</t>
+          <t>first;second;identity;determine;third;threshold;matching;facial_feature;registered;match;involves;generate;positive;compare;successful;comparison_result;transform;electronic_device;capture;key_point_detection;similar;continuous;belong;establish;normal;exceed;recognition;detected;great;cause</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>convolutional_neural_network;use;algorithm;deep;extract;layer;multi;structure;predict;send;complete;select;form;extracted;operation;location;task;based;divide;learn;realize;binary;involves;include;facial_feature_points;learning;key_point_detection;combine;recognition;facial_recognition</t>
+          <t>value;select;calculate;probability;output;high;pixel;algorithm;complete;distribution;gender;comparison;predict;update;shape;accuracy;classification;alignment;regression;cross;projection;cascade;maximum;rate;library;final;obtained;number;noise;different</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>expression;facial_expression;fusion;facial_expression_recognition;processed;utilize;train;classifier;dynamic;classify;establish;learn;trained;divide;extraction;change;identification;recognition;pre;training;library;corresponding;extracted;inputted;identification_result;space;accord;extract;part;electronic_device</t>
+          <t>device;provide;identification;connect;facial_recognition;end;camera;utility;comprise;face_recognition;model;side;machine;claim;fixedly;front;main;height;whose;two;main_body;fix;plate;light;box;field;mount;control;groove;instal</t>
         </is>
       </c>
     </row>
